--- a/doc/MVP1/mvp1 - intents.xlsx
+++ b/doc/MVP1/mvp1 - intents.xlsx
@@ -9,21 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="6960"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="6960" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="4" r:id="rId1"/>
     <sheet name="Intents" sheetId="1" r:id="rId2"/>
     <sheet name="Entities" sheetId="2" r:id="rId3"/>
     <sheet name="Dialog" sheetId="3" r:id="rId4"/>
-    <sheet name="Notes" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId5"/>
+    <sheet name="Notes" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="126">
   <si>
     <t>ID</t>
   </si>
@@ -133,12 +134,437 @@
     <t>Ok Google, j’aimerais avoir des infos sur le foot belge</t>
   </si>
   <si>
-    <t xml:space="preserve">Can we specify launcher per topic : </t>
-  </si>
-  <si>
-    <r>
-      <t>Ok Google, j'aimerais avoir des infos sur les</t>
-    </r>
+    <t>Bonjour, quels sont les matchs dont vous aimeriez ….</t>
+  </si>
+  <si>
+    <t>dans quel club ?</t>
+  </si>
+  <si>
+    <t>Samedi xx mars, ils ont gagnés 2-1 contre xx. Leur prochain match sera contre xx le xx.</t>
+  </si>
+  <si>
+    <t>en dessous de U13 (compris) il n'y a pas de résultat SAUF pour U13 Elite</t>
+  </si>
+  <si>
+    <t>%SYSNONYM_SCORE%</t>
+  </si>
+  <si>
+    <t>%SYNONYM_OPENING_QUESTION%</t>
+  </si>
+  <si>
+    <t>Quel est le, Quels sont les, Donne moi le, Qu'à fait, …</t>
+  </si>
+  <si>
+    <t>résultat, résultats, score, scores, …</t>
+  </si>
+  <si>
+    <t>Parameters</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Liste des U15 si existe plus petite que </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>sinon résultat</t>
+    </r>
+  </si>
+  <si>
+    <t>Dender</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>%SYNONYM_OPENING_QUESTION%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>%SYSNONYM_SCORE%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> du match de</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> %CLUB% %CATEGORY%</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>%TEAM%</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>contre</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>%CLUB_OPPONENT% %TIME%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>%SYNONYM_OPENING_QUESTION%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>%SYSNONYM_SCORE%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> de</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">%CLUB% %CATEGORY% %TEAM% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>contre</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>%CLUB_OPPONENT% %TIME%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">%SYNONYM_OPENING_QUESTION% </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">%CLUB% %CATEGORY% %TEAM% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>contre</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>%CLUB_OPPONENT% %TIME%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>%SYNONYM_OPENING_QUESTION%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>%SYSNONYM_SCORE%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> du match de </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>%CLUB% %CATEGORY% %TEAM% %TIME%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>%SYNONYM_OPENING_QUESTION%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>%SYSNONYM_SCORE%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> de</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>%CLUB% %CATEGORY% %TEAM% %TIME%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">%SYNONYM_OPENING_QUESTION% </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>%CLUB% %CATEGORY% %TEAM% %TIME%</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -148,7 +574,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> résultats</t>
+      <t xml:space="preserve"> %SYSNONYM_SCORE%</t>
     </r>
     <r>
       <rPr>
@@ -158,68 +584,41 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> du foot belge</t>
-    </r>
-  </si>
-  <si>
-    <t>Or we keep it generic and multiply the number of intents for the same app ?</t>
-  </si>
-  <si>
-    <t>Bonjour, quels sont les matchs dont vous aimeriez ….</t>
-  </si>
-  <si>
-    <t>dans quel club ?</t>
-  </si>
-  <si>
-    <t>Samedi xx mars, ils ont gagnés 2-1 contre xx. Leur prochain match sera contre xx le xx.</t>
-  </si>
-  <si>
-    <t>en dessous de U13 (compris) il n'y a pas de résultat SAUF pour U13 Elite</t>
-  </si>
-  <si>
-    <t>%SYSNONYM_SCORE%</t>
-  </si>
-  <si>
-    <t>%SYNONYM_OPENING_QUESTION%</t>
-  </si>
-  <si>
-    <t>Quel est le, Quels sont les, Donne moi le, Qu'à fait, …</t>
-  </si>
-  <si>
-    <t>résultat, résultats, score, scores, …</t>
-  </si>
-  <si>
-    <t>Parameters</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Liste des U15 si existe plus petite que </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%CLUB% %CATEGORY% %TEAM%</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>sinon résultat</t>
-    </r>
-  </si>
-  <si>
-    <t>Dender</t>
-  </si>
-  <si>
-    <t>A</t>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> -</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> %CLUB_OPPONENT% %TIME%</t>
+    </r>
   </si>
   <si>
     <r>
@@ -230,7 +629,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>%SYNONYM_OPENING_QUESTION%</t>
+      <t>%SYNONYM_OPENING_QUESTION% %SYSNONYM_SCORE%</t>
     </r>
     <r>
       <rPr>
@@ -239,7 +638,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t xml:space="preserve"> du</t>
     </r>
     <r>
       <rPr>
@@ -249,7 +648,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>%SYSNONYM_SCORE%</t>
+      <t xml:space="preserve"> dernier</t>
     </r>
     <r>
       <rPr>
@@ -258,7 +657,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> du match de</t>
+      <t xml:space="preserve"> match de </t>
     </r>
     <r>
       <rPr>
@@ -268,7 +667,36 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> %CLUB% %CATEGORY%</t>
+      <t>%CLUB% %CATEGORY% %TEAM%</t>
+    </r>
+  </si>
+  <si>
+    <t>dans quelle catégorie/équipe ?</t>
+  </si>
+  <si>
+    <t>CLUB</t>
+  </si>
+  <si>
+    <t>TEAM</t>
+  </si>
+  <si>
+    <t>CATEGORY</t>
+  </si>
+  <si>
+    <t>Sample Params</t>
+  </si>
+  <si>
+    <t>CLUB_OPPONENT</t>
+  </si>
+  <si>
+    <t>Diegem</t>
+  </si>
+  <si>
+    <t>TIME</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">standard date, hier, du weekend. </t>
     </r>
     <r>
       <rPr>
@@ -278,7 +706,24 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t>Default = last match</t>
+    </r>
+  </si>
+  <si>
+    <t>Bonjour, …</t>
+  </si>
+  <si>
+    <t>U15</t>
+  </si>
+  <si>
+    <t>Dans U15, je retrouve les équipes A, B et C. Quel est votre choix ?</t>
+  </si>
+  <si>
+    <t>Diegem U15 A a gagné son dernier mach contre Zulte-Waregem avec un score de 1-2</t>
+  </si>
+  <si>
+    <r>
+      <t>Qui a gagné le match</t>
     </r>
     <r>
       <rPr>
@@ -288,36 +733,16 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>%TEAM%</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t xml:space="preserve"> %CLUB% %CATEGORY% %TEAM% </t>
+    </r>
+    <r>
+      <rPr>
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
       <t>contre</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -327,552 +752,217 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>%CLUB_OPPONENT% %TIME%</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>%SYNONYM_OPENING_QUESTION%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>%SYSNONYM_SCORE%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> de</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
+      <t xml:space="preserve"> %CLUB_OPPONENT% %TIME%</t>
+    </r>
+  </si>
+  <si>
+    <t>Response</t>
+  </si>
+  <si>
+    <t>%CLUB% %CATEGORY% %TEAM% %CLUB_OPPONENT% %TIME%</t>
+  </si>
+  <si>
+    <t>For the CLUB-TEAM (A, B, C, Rouge, …) it can probably not be an entity. To be confirmed. =&gt; Will be handled by the app as multiple choice response in case of multiple CLUB-TEAM exist</t>
+  </si>
+  <si>
+    <t>FC DENDER, U15, A</t>
+  </si>
+  <si>
+    <t>FC DENDER, U15, B</t>
+  </si>
+  <si>
+    <t>FC DENDER, U15, C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample with multiple choice : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample with single choice : </t>
+  </si>
+  <si>
+    <t>FC DENDER, U13 (no multiple sub team)</t>
+  </si>
+  <si>
+    <t>Entity</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Values</t>
+  </si>
+  <si>
+    <t>"U11", "U12", "U13", "U14", "U15", …</t>
+  </si>
+  <si>
+    <t>"F.C. Dender" = "F.C. Dender", "FC Dender", "Dender"; "Zulte-Waregem"= "Zulte-Waregem"; …</t>
+  </si>
+  <si>
+    <t>csv Imported  from DB. Will contain all club names such as FC DENDER …</t>
+  </si>
+  <si>
+    <t>csv Imported  from DB. Will contain all club category such as U13 U15 …</t>
+  </si>
+  <si>
+    <t>Ok Google, parler avec BBF</t>
+  </si>
+  <si>
+    <t>Donne moi le résultat du match de Diegem contre Zulte</t>
+  </si>
+  <si>
+    <t>score_club_0 </t>
+  </si>
+  <si>
+    <t>Ok, pourriez-vous préciser pour quelle équipe ?</t>
+  </si>
+  <si>
+    <t>score_club_0_1</t>
+  </si>
+  <si>
+    <t>score_club_0_1_2</t>
+  </si>
+  <si>
+    <t>U15 A</t>
+  </si>
+  <si>
+    <t>score_club_0_2</t>
+  </si>
+  <si>
+    <t>Donne moi le résultat du match de Diegem contre Zulte en U15 A</t>
+  </si>
+  <si>
+    <t>score_club_category_team_0</t>
+  </si>
+  <si>
+    <t>Donne moi le résultat du match de Diegem contre Zulte en U15</t>
+  </si>
+  <si>
+    <t>score_club_category_0</t>
+  </si>
+  <si>
+    <t>score_club_category_0_1</t>
+  </si>
+  <si>
+    <t>club1</t>
+  </si>
+  <si>
+    <t>club2</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>intent id</t>
+  </si>
+  <si>
+    <t>csv Imported  from DB. Will contain all team such as A B C Rouge Blanc…</t>
+  </si>
+  <si>
+    <t>"A", "B", "C", "Rouge", …</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Dans U15, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">%CLUB% %CATEGORY% %TEAM% </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>contre</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>%CLUB_OPPONENT% %TIME%</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">%SYNONYM_OPENING_QUESTION% </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">%CLUB% %CATEGORY% %TEAM% </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>contre</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>%CLUB_OPPONENT% %TIME%</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>%SYNONYM_OPENING_QUESTION%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>%SYSNONYM_SCORE%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> du match de </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>%CLUB% %CATEGORY% %TEAM% %TIME%</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>%SYNONYM_OPENING_QUESTION%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>%SYSNONYM_SCORE%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> de</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>%CLUB% %CATEGORY% %TEAM% %TIME%</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">%SYNONYM_OPENING_QUESTION% </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>%CLUB% %CATEGORY% %TEAM% %TIME%</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>je retrouve les équipes A, B et C</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> %SYSNONYM_SCORE%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>. Quel est votre choix ?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Diegem U15 A a gagné son dernier mach contre Zulte-Waregem avec un score de </t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color theme="5" tint="-0.249977111117893"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>%CLUB% %CATEGORY% %TEAM%</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> -</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> %CLUB_OPPONENT% %TIME%</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>%SYNONYM_OPENING_QUESTION% %SYSNONYM_SCORE%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> du</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> dernier</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> match de </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>%CLUB% %CATEGORY% %TEAM%</t>
-    </r>
-  </si>
-  <si>
-    <t>dans quelle catégorie/équipe ?</t>
-  </si>
-  <si>
-    <t>CLUB</t>
-  </si>
-  <si>
-    <t>TEAM</t>
-  </si>
-  <si>
-    <t>CATEGORY</t>
-  </si>
-  <si>
-    <t>Sample Params</t>
-  </si>
-  <si>
-    <t>CLUB_OPPONENT</t>
-  </si>
-  <si>
-    <t>Diegem</t>
-  </si>
-  <si>
-    <t>TIME</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">standard date, hier, du weekend. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Default = last match</t>
-    </r>
-  </si>
-  <si>
-    <t>Bonjour, quel est le match dont vous aimeriez connaitre le résultat ?</t>
-  </si>
-  <si>
-    <t>Bonjour, …</t>
-  </si>
-  <si>
-    <t>Donne moi le résultat du match de Diegem</t>
-  </si>
-  <si>
-    <t>Ok, pourriez-vous préciser pour quelle équipe de Diegem ?</t>
-  </si>
-  <si>
-    <t>U15</t>
-  </si>
-  <si>
-    <t>Dans U15, je retrouve les équipes A, B et C. Quel est votre choix ?</t>
-  </si>
-  <si>
-    <t>Celui de Diegem U15</t>
-  </si>
-  <si>
-    <t>Diegem U15 A a gagné son dernier mach contre Zulte-Waregem avec un score de 1-2</t>
-  </si>
-  <si>
-    <r>
-      <t>Qui a gagné le match</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> %CLUB% %CATEGORY% %TEAM% </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>contre</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> %CLUB_OPPONENT% %TIME%</t>
-    </r>
-  </si>
-  <si>
-    <t>Response</t>
-  </si>
-  <si>
-    <t>getOfficialScore_0_Club</t>
-  </si>
-  <si>
-    <t>getOfficialScore_1_Categorie</t>
-  </si>
-  <si>
-    <t>CLUB-NAME</t>
-  </si>
-  <si>
-    <t>CLUB-CATEGORY</t>
-  </si>
-  <si>
-    <t>%CLUB% %CATEGORY% %TEAM% %CLUB_OPPONENT% %TIME%</t>
-  </si>
-  <si>
-    <t>For the CLUB-TEAM (A, B, C, Rouge, …) it can probably not be an entity. To be confirmed. =&gt; Will be handled by the app as multiple choice response in case of multiple CLUB-TEAM exist</t>
-  </si>
-  <si>
-    <t>FC DENDER, U15, A</t>
-  </si>
-  <si>
-    <t>FC DENDER, U15, B</t>
-  </si>
-  <si>
-    <t>FC DENDER, U15, C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample with multiple choice : </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample with single choice : </t>
-  </si>
-  <si>
-    <t>FC DENDER, U13 (no multiple sub team)</t>
-  </si>
-  <si>
-    <t>Entity</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Values</t>
-  </si>
-  <si>
-    <t>"U11", "U12", "U13", "U14", "U15", …</t>
-  </si>
-  <si>
-    <t>"F.C. Dender" = "F.C. Dender", "FC Dender", "Dender"; "Zulte-Waregem"= "Zulte-Waregem"; …</t>
-  </si>
-  <si>
-    <t>csv Imported  from DB. Will contain all club names such as FC DENDER …</t>
-  </si>
-  <si>
-    <t>csv Imported  from DB. Will contain all club category such as U13 U15 …</t>
-  </si>
-  <si>
-    <t>Usage</t>
-  </si>
-  <si>
-    <t>%CLUB% %CLUB_OPPONENT%</t>
-  </si>
-  <si>
-    <t>%CATEGORY%</t>
+      <t>1-2</t>
+    </r>
+  </si>
+  <si>
+    <t>x (club1 name, club2 name, category name)</t>
+  </si>
+  <si>
+    <t>x (club1 name, club2 name, category name, team name)</t>
+  </si>
+  <si>
+    <t>Search Datalake</t>
+  </si>
+  <si>
+    <t>complement</t>
+  </si>
+  <si>
+    <t>Lieu d'un match et quel terrain (synth/non)</t>
+  </si>
+  <si>
+    <t>Date, heure d'un match ajouter les noms de club</t>
+  </si>
+  <si>
+    <t>classement des 2 équipes (écart des points et nombre de matchs joués)</t>
+  </si>
+  <si>
+    <t>x a joué x match et ont x points (+position)</t>
+  </si>
+  <si>
+    <t>classement d'une série</t>
+  </si>
+  <si>
+    <t>classement d'une équipe pour une période pour une série</t>
+  </si>
+  <si>
+    <t>qui est l'arbitre</t>
+  </si>
+  <si>
+    <t>Résultat du match précédent entre les 2 équpes</t>
+  </si>
+  <si>
+    <t>classement équipe =&gt; position et points …. Attention aux "séries" actives. Couleur maillot base (si disponible deplacement et domicile)</t>
+  </si>
+  <si>
+    <t>match : qui a marqué (si disponible) sinon indiqué que soit privacy ou parce qu'inconnu (jeunes)</t>
+  </si>
+  <si>
+    <t>matchs de la journée pour une série ou pour un club</t>
+  </si>
+  <si>
+    <t>match : cartes rouges ?</t>
+  </si>
+  <si>
+    <t>match qui était suspendu pour le match</t>
+  </si>
+  <si>
+    <t>Sélection pour un match pour 1 ou 2 équipe</t>
+  </si>
+  <si>
+    <t>match : rapport sur carte rouge/jaunes/changement/…</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1071,8 +1161,27 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF2B313F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial Black"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1267,6 +1376,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1501,7 +1616,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1538,11 +1653,11 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1550,14 +1665,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1910,8 +2060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2252,7 +2402,7 @@
   <dimension ref="A2:X34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2270,18 +2420,18 @@
   <sheetData>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B2" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
         <v>43</v>
-      </c>
-      <c r="C2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
@@ -2289,10 +2439,10 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -2300,27 +2450,27 @@
     <row r="6" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" s="17"/>
+        <v>57</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="29"/>
       <c r="F7" s="3"/>
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="C8" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="E8" s="17"/>
+        <v>59</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="29"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
@@ -2344,12 +2494,12 @@
     <row r="9" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="C9" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="17"/>
+        <v>58</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="29"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
@@ -2373,12 +2523,12 @@
     <row r="10" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
       <c r="C10" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="E10" s="17"/>
+        <v>61</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="29"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
@@ -2402,12 +2552,12 @@
     <row r="11" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14"/>
       <c r="C11" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="E11" s="17"/>
+        <v>63</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="29"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
@@ -2479,16 +2629,16 @@
         <v>12</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
@@ -2521,7 +2671,7 @@
         <v>12</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
@@ -2557,7 +2707,7 @@
         <v>12</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
@@ -2619,7 +2769,7 @@
         <v>12</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
@@ -2655,7 +2805,7 @@
         <v>12</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
@@ -2691,7 +2841,7 @@
         <v>12</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
@@ -2753,7 +2903,7 @@
         <v>12</v>
       </c>
       <c r="E22" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
@@ -2814,7 +2964,7 @@
         <v>12</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
@@ -2876,7 +3026,7 @@
         <v>12</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
@@ -3121,10 +3271,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E5"/>
+  <dimension ref="A2:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3141,33 +3291,28 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>97</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="16"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E4" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -3175,16 +3320,27 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="C5" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="D5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E5" t="s">
-        <v>99</v>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -3194,707 +3350,1233 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F97"/>
+  <dimension ref="A2:I112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B11" sqref="B11:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="45.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" customWidth="1"/>
-    <col min="4" max="4" width="39.140625" customWidth="1"/>
-    <col min="5" max="5" width="33.140625" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="2" max="2" width="34.5703125" customWidth="1"/>
+    <col min="4" max="4" width="31" customWidth="1"/>
+    <col min="5" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" customWidth="1"/>
+    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="51.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="34" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="26" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="E3" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="H3" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="I3" s="23"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="C4" s="9"/>
-      <c r="E4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" s="19"/>
-      <c r="E5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="33"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="21"/>
-      <c r="D6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="31"/>
+      <c r="D6" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" s="19"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="33"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="C8" s="21"/>
-      <c r="D8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="31"/>
+      <c r="D8" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" s="19"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" s="33"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="21"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="31"/>
+      <c r="D10" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="23"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" s="19"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" s="33"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="21"/>
-    </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="B12" s="30"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B15" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="19"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="31"/>
+      <c r="D17" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="33"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="31"/>
+      <c r="D19" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="I19" s="23"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="33"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="30"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="19"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" s="31"/>
+      <c r="D25" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="F25" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="G25" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" s="33"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" s="31"/>
+      <c r="D27" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="E27" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="I27" s="23"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="33"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="30"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C31" s="9"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="19"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33" s="31"/>
+      <c r="D33" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="E33" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="F33" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="G33" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H33" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="I33" s="23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="33"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" s="30"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="23"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="21"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
+    </row>
+    <row r="37" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="E14" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" s="19"/>
-      <c r="E15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" s="21"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="C17" s="19"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="21"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="C19" s="19"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="21"/>
-    </row>
-    <row r="22" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" s="9"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="19"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" s="21"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" s="18"/>
-      <c r="C27" s="19"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="20"/>
-      <c r="C28" s="21"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" s="18"/>
-      <c r="C29" s="19"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" s="20"/>
-      <c r="C30" s="21"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" s="18"/>
-      <c r="C31" s="19"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" s="20"/>
-      <c r="C32" s="21"/>
-    </row>
-    <row r="35" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C37" s="9"/>
-    </row>
-    <row r="38" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B38" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C38" s="19"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B39" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C39" s="21"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C39" s="9"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B40" s="18"/>
-      <c r="C40" s="19"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B40" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" s="33"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B41" s="20"/>
-      <c r="C41" s="21"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B41" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41" s="31"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B42" s="18"/>
-      <c r="C42" s="19"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B42" s="32"/>
+      <c r="C42" s="33"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B43" s="20"/>
-      <c r="C43" s="21"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B43" s="30"/>
+      <c r="C43" s="31"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B44" s="18"/>
-      <c r="C44" s="19"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B44" s="32"/>
+      <c r="C44" s="33"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B45" s="30"/>
+      <c r="C45" s="31"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B46" s="32"/>
+      <c r="C46" s="33"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B45" s="20"/>
-      <c r="C45" s="21"/>
-    </row>
-    <row r="48" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A48" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C50" s="9"/>
-    </row>
-    <row r="51" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B51" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C51" s="19"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="31"/>
+    </row>
+    <row r="50" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="A50" s="8" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B52" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C52" s="21"/>
+        <v>32</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C52" s="9"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B53" s="18"/>
-      <c r="C53" s="19"/>
+      <c r="B53" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C53" s="33"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B54" s="20"/>
-      <c r="C54" s="21"/>
+      <c r="B54" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C54" s="31"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B55" s="18"/>
-      <c r="C55" s="19"/>
+      <c r="B55" s="32"/>
+      <c r="C55" s="33"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B56" s="20"/>
-      <c r="C56" s="21"/>
+      <c r="B56" s="30"/>
+      <c r="C56" s="31"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B57" s="18"/>
-      <c r="C57" s="19"/>
+      <c r="B57" s="32"/>
+      <c r="C57" s="33"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B58" s="30"/>
+      <c r="C58" s="31"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B59" s="32"/>
+      <c r="C59" s="33"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B58" s="20"/>
-      <c r="C58" s="21"/>
-    </row>
-    <row r="61" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A61" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B63" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C63" s="9"/>
-    </row>
-    <row r="64" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B64" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C64" s="19"/>
+      <c r="B60" s="30"/>
+      <c r="C60" s="31"/>
+    </row>
+    <row r="63" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="A63" s="8" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B65" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C65" s="21"/>
+        <v>32</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C65" s="9"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B66" s="18"/>
-      <c r="C66" s="19"/>
+      <c r="B66" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C66" s="33"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B67" s="20"/>
-      <c r="C67" s="21"/>
+      <c r="B67" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C67" s="31"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B68" s="18"/>
-      <c r="C68" s="19"/>
+      <c r="B68" s="32"/>
+      <c r="C68" s="33"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B69" s="20"/>
-      <c r="C69" s="21"/>
+      <c r="B69" s="30"/>
+      <c r="C69" s="31"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B70" s="18"/>
-      <c r="C70" s="19"/>
+      <c r="B70" s="32"/>
+      <c r="C70" s="33"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B71" s="30"/>
+      <c r="C71" s="31"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B72" s="32"/>
+      <c r="C72" s="33"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B71" s="20"/>
-      <c r="C71" s="21"/>
-    </row>
-    <row r="74" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A74" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B76" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C76" s="9"/>
-    </row>
-    <row r="77" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B77" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C77" s="19"/>
+      <c r="B73" s="30"/>
+      <c r="C73" s="31"/>
+    </row>
+    <row r="76" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="A76" s="8" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B78" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C78" s="21"/>
+        <v>32</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C78" s="9"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B79" s="18"/>
-      <c r="C79" s="19"/>
+      <c r="B79" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C79" s="33"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B80" s="20"/>
-      <c r="C80" s="21"/>
+      <c r="B80" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C80" s="31"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B81" s="18"/>
-      <c r="C81" s="19"/>
+      <c r="B81" s="32"/>
+      <c r="C81" s="33"/>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B82" s="20"/>
-      <c r="C82" s="21"/>
+      <c r="B82" s="30"/>
+      <c r="C82" s="31"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B83" s="18"/>
-      <c r="C83" s="19"/>
+      <c r="B83" s="32"/>
+      <c r="C83" s="33"/>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B84" s="30"/>
+      <c r="C84" s="31"/>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B85" s="32"/>
+      <c r="C85" s="33"/>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B84" s="20"/>
-      <c r="C84" s="21"/>
-    </row>
-    <row r="87" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A87" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B89" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C89" s="9"/>
-    </row>
-    <row r="90" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B90" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C90" s="19"/>
+      <c r="B86" s="30"/>
+      <c r="C86" s="31"/>
+    </row>
+    <row r="89" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="A89" s="8" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B91" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C91" s="21"/>
+        <v>32</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C91" s="9"/>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B92" s="18"/>
-      <c r="C92" s="19"/>
+      <c r="B92" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C92" s="33"/>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B93" s="20"/>
-      <c r="C93" s="21"/>
+      <c r="B93" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C93" s="31"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B94" s="18"/>
-      <c r="C94" s="19"/>
+      <c r="B94" s="32"/>
+      <c r="C94" s="33"/>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B95" s="20"/>
-      <c r="C95" s="21"/>
+      <c r="B95" s="30"/>
+      <c r="C95" s="31"/>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B96" s="18"/>
-      <c r="C96" s="19"/>
+      <c r="B96" s="32"/>
+      <c r="C96" s="33"/>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B97" s="30"/>
+      <c r="C97" s="31"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B98" s="32"/>
+      <c r="C98" s="33"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B97" s="20"/>
-      <c r="C97" s="21"/>
+      <c r="B99" s="30"/>
+      <c r="C99" s="31"/>
+    </row>
+    <row r="102" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="A102" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C104" s="9"/>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B105" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C105" s="33"/>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B106" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C106" s="31"/>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B107" s="32"/>
+      <c r="C107" s="33"/>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B108" s="30"/>
+      <c r="C108" s="31"/>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B109" s="32"/>
+      <c r="C109" s="33"/>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B110" s="30"/>
+      <c r="C110" s="31"/>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B111" s="32"/>
+      <c r="C111" s="33"/>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B112" s="30"/>
+      <c r="C112" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="62">
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
+  <mergeCells count="71">
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B93:C93"/>
     <mergeCell ref="B94:C94"/>
     <mergeCell ref="B95:C95"/>
     <mergeCell ref="B96:C96"/>
     <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
     <mergeCell ref="B68:C68"/>
     <mergeCell ref="B69:C69"/>
     <mergeCell ref="B70:C70"/>
     <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="E2:H2"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="B111:C111"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="19"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="31"/>
+      <c r="D3" s="20" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="33"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="31"/>
+      <c r="D5" s="20" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="33"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="31"/>
+      <c r="D7" s="20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="33"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="30"/>
+      <c r="C9" s="31"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A5:B17"/>
+  <dimension ref="A5:J40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3904,55 +4586,134 @@
   <sheetData>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>89</v>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>113</v>
+      </c>
+      <c r="J29" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>